--- a/teaching/traditional_assets/database/data/kyrgyzstan/kyrgyzstan_precious_metals.xlsx
+++ b/teaching/traditional_assets/database/data/kyrgyzstan/kyrgyzstan_precious_metals.xlsx
@@ -591,22 +591,22 @@
         </is>
       </c>
       <c r="G2">
-        <v>-0.3187096774193549</v>
+        <v>-0.182089552238806</v>
       </c>
       <c r="H2">
-        <v>-0.3187096774193549</v>
+        <v>-0.182089552238806</v>
       </c>
       <c r="I2">
-        <v>-0.4476725448549737</v>
+        <v>-0.2194029850746269</v>
       </c>
       <c r="J2">
-        <v>-0.4476725448549737</v>
+        <v>-0.2194029850746269</v>
       </c>
       <c r="K2">
-        <v>-24.3</v>
+        <v>-30.6</v>
       </c>
       <c r="L2">
-        <v>-0.7838709677419355</v>
+        <v>-0.4567164179104478</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -630,73 +630,73 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>4.91</v>
+        <v>5.93</v>
       </c>
       <c r="V2">
-        <v>0.02264760147601476</v>
+        <v>0.03633578431372549</v>
       </c>
       <c r="W2">
-        <v>-1.025316455696203</v>
+        <v>-1.854545454545455</v>
       </c>
       <c r="X2">
-        <v>0.1621944884671679</v>
+        <v>0.1310963147421401</v>
       </c>
       <c r="Y2">
-        <v>-1.187510944163371</v>
+        <v>-1.985641769287595</v>
       </c>
       <c r="Z2">
-        <v>0.784427952240937</v>
+        <v>0.7045956462298875</v>
       </c>
       <c r="AA2">
-        <v>-0.351166857635076</v>
+        <v>-0.1545903880534231</v>
       </c>
       <c r="AB2">
-        <v>0.1380633078441512</v>
+        <v>0.1114338863607346</v>
       </c>
       <c r="AC2">
-        <v>-0.4892301654792272</v>
+        <v>-0.2660242744141577</v>
       </c>
       <c r="AD2">
-        <v>83.5</v>
+        <v>72.2</v>
       </c>
       <c r="AE2">
-        <v>0.2692444525209268</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>83.76924445252092</v>
+        <v>72.2</v>
       </c>
       <c r="AG2">
-        <v>78.85924445252093</v>
+        <v>66.27000000000001</v>
       </c>
       <c r="AH2">
-        <v>0.2787019829826715</v>
+        <v>0.3067119796091759</v>
       </c>
       <c r="AI2">
-        <v>0.8354430604310277</v>
+        <v>0.7141444114737884</v>
       </c>
       <c r="AJ2">
-        <v>0.2667234187063773</v>
+        <v>0.2887959210354295</v>
       </c>
       <c r="AK2">
-        <v>0.8269701055757075</v>
+        <v>0.6963328780077755</v>
       </c>
       <c r="AL2">
-        <v>6.88</v>
+        <v>12.5</v>
       </c>
       <c r="AM2">
-        <v>6.88</v>
+        <v>12.486</v>
       </c>
       <c r="AN2">
-        <v>-8.841592545531554</v>
+        <v>-6.278260869565218</v>
       </c>
       <c r="AO2">
-        <v>-2.034883720930233</v>
+        <v>-1.176</v>
       </c>
       <c r="AP2">
-        <v>-8.35019530416359</v>
+        <v>-5.762608695652175</v>
       </c>
       <c r="AQ2">
-        <v>-2.034883720930233</v>
+        <v>-1.177318596828448</v>
       </c>
     </row>
     <row r="3">
@@ -716,22 +716,22 @@
         </is>
       </c>
       <c r="G3">
-        <v>-0.3187096774193549</v>
+        <v>-0.182089552238806</v>
       </c>
       <c r="H3">
-        <v>-0.3187096774193549</v>
+        <v>-0.182089552238806</v>
       </c>
       <c r="I3">
-        <v>-0.4476725448549737</v>
+        <v>-0.2194029850746269</v>
       </c>
       <c r="J3">
-        <v>-0.4476725448549737</v>
+        <v>-0.2194029850746269</v>
       </c>
       <c r="K3">
-        <v>-24.3</v>
+        <v>-30.6</v>
       </c>
       <c r="L3">
-        <v>-0.7838709677419355</v>
+        <v>-0.4567164179104478</v>
       </c>
       <c r="M3">
         <v>-0</v>
@@ -755,73 +755,73 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>4.91</v>
+        <v>5.93</v>
       </c>
       <c r="V3">
-        <v>0.02264760147601476</v>
+        <v>0.03633578431372549</v>
       </c>
       <c r="W3">
-        <v>-1.025316455696203</v>
+        <v>-1.854545454545455</v>
       </c>
       <c r="X3">
-        <v>0.1621944884671679</v>
+        <v>0.1310963147421401</v>
       </c>
       <c r="Y3">
-        <v>-1.187510944163371</v>
+        <v>-1.985641769287595</v>
       </c>
       <c r="Z3">
-        <v>0.784427952240937</v>
+        <v>0.7045956462298875</v>
       </c>
       <c r="AA3">
-        <v>-0.351166857635076</v>
+        <v>-0.1545903880534231</v>
       </c>
       <c r="AB3">
-        <v>0.1380633078441512</v>
+        <v>0.1114338863607346</v>
       </c>
       <c r="AC3">
-        <v>-0.4892301654792272</v>
+        <v>-0.2660242744141577</v>
       </c>
       <c r="AD3">
-        <v>83.5</v>
+        <v>72.2</v>
       </c>
       <c r="AE3">
-        <v>0.2692444525209268</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>83.76924445252092</v>
+        <v>72.2</v>
       </c>
       <c r="AG3">
-        <v>78.85924445252093</v>
+        <v>66.27000000000001</v>
       </c>
       <c r="AH3">
-        <v>0.2787019829826715</v>
+        <v>0.3067119796091759</v>
       </c>
       <c r="AI3">
-        <v>0.8354430604310277</v>
+        <v>0.7141444114737884</v>
       </c>
       <c r="AJ3">
-        <v>0.2667234187063773</v>
+        <v>0.2887959210354295</v>
       </c>
       <c r="AK3">
-        <v>0.8269701055757075</v>
+        <v>0.6963328780077755</v>
       </c>
       <c r="AL3">
-        <v>6.88</v>
+        <v>12.5</v>
       </c>
       <c r="AM3">
-        <v>6.88</v>
+        <v>12.486</v>
       </c>
       <c r="AN3">
-        <v>-8.841592545531554</v>
+        <v>-6.278260869565218</v>
       </c>
       <c r="AO3">
-        <v>-2.034883720930233</v>
+        <v>-1.176</v>
       </c>
       <c r="AP3">
-        <v>-8.35019530416359</v>
+        <v>-5.762608695652175</v>
       </c>
       <c r="AQ3">
-        <v>-2.034883720930233</v>
+        <v>-1.177318596828448</v>
       </c>
     </row>
   </sheetData>
